--- a/database/industries/ghaza/ghepino/product/quarterly_seprated.xlsx
+++ b/database/industries/ghaza/ghepino/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghepino\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549ABB3A-9145-47F9-AD7B-B4A33006AFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="57">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,21 +37,21 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1396/12</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1397/12</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1398/12</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
     <t>فصل چهارم منتهی به 1400/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -60,34 +61,34 @@
     <t>کیلوگرم</t>
   </si>
   <si>
+    <t>گروه آدامس شیک</t>
+  </si>
+  <si>
+    <t>گروه بیسکویت و چوب شور</t>
+  </si>
+  <si>
+    <t>گروه ویفر</t>
+  </si>
+  <si>
+    <t>گروه شکلات قدیم</t>
+  </si>
+  <si>
+    <t>گروه پفک</t>
+  </si>
+  <si>
+    <t>گروه اسنک و پلت</t>
+  </si>
+  <si>
+    <t>گروه شکلات جدید</t>
+  </si>
+  <si>
+    <t>سود سرمایه گذاری ها</t>
+  </si>
+  <si>
+    <t>شرکت دارویی و آرایشی و بهداشتی مینو</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>گروه آدامس شیک</t>
-  </si>
-  <si>
-    <t>گروه بیسکویت و چوب شور</t>
-  </si>
-  <si>
-    <t>گروه ویفر</t>
-  </si>
-  <si>
-    <t>گروه شکلات قدیم</t>
-  </si>
-  <si>
-    <t>گروه پفک</t>
-  </si>
-  <si>
-    <t>گروه اسنک و پلت</t>
-  </si>
-  <si>
-    <t>گروه شکلات جدید</t>
-  </si>
-  <si>
-    <t>سود سرمایه گذاری ها</t>
-  </si>
-  <si>
-    <t>شرکت دارویی و آرایشی و بهداشتی مینو</t>
   </si>
   <si>
     <t>جمع فروش داخلی</t>
@@ -195,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,7 +389,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -400,7 +401,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -447,6 +448,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -482,6 +500,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,17 +668,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -653,7 +688,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -665,7 +700,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +712,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -687,7 +722,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,7 +734,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -711,7 +746,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -721,7 +756,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -743,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -753,7 +788,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -765,7 +800,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -773,237 +808,237 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>71571</v>
+      </c>
+      <c r="F11" s="11">
+        <v>138143</v>
+      </c>
+      <c r="G11" s="11">
+        <v>143550</v>
+      </c>
+      <c r="H11" s="11">
+        <v>46474</v>
+      </c>
+      <c r="I11" s="11">
+        <v>93339</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>901048</v>
-      </c>
-      <c r="G11" s="11">
-        <v>759038</v>
-      </c>
-      <c r="H11" s="11">
-        <v>547979</v>
-      </c>
-      <c r="I11" s="11">
-        <v>427041</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>352063</v>
       </c>
       <c r="F12" s="13">
-        <v>2631252</v>
+        <v>376398</v>
       </c>
       <c r="G12" s="13">
-        <v>2446792</v>
+        <v>309544</v>
       </c>
       <c r="H12" s="13">
-        <v>2451377</v>
+        <v>354282</v>
       </c>
       <c r="I12" s="13">
-        <v>1561953</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>357796</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>1232062</v>
       </c>
       <c r="F13" s="11">
-        <v>5505100</v>
+        <v>1520094</v>
       </c>
       <c r="G13" s="11">
-        <v>5474495</v>
+        <v>1634693</v>
       </c>
       <c r="H13" s="11">
-        <v>5659449</v>
+        <v>1515009</v>
       </c>
       <c r="I13" s="11">
-        <v>5652017</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1692185</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>1428746</v>
       </c>
       <c r="F14" s="13">
-        <v>6803850</v>
+        <v>1759512</v>
       </c>
       <c r="G14" s="13">
-        <v>6532790</v>
+        <v>2005807</v>
       </c>
       <c r="H14" s="13">
-        <v>6557341</v>
+        <v>1720193</v>
       </c>
       <c r="I14" s="13">
-        <v>6712129</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1889476</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>13</v>
+      <c r="E15" s="11">
+        <v>570275</v>
       </c>
       <c r="F15" s="11">
-        <v>1939171</v>
+        <v>728944</v>
       </c>
       <c r="G15" s="11">
-        <v>2086088</v>
+        <v>615754</v>
       </c>
       <c r="H15" s="11">
-        <v>2427212</v>
+        <v>529555</v>
       </c>
       <c r="I15" s="11">
-        <v>2480319</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>590893</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>13</v>
+      <c r="E16" s="13">
+        <v>322585</v>
       </c>
       <c r="F16" s="13">
-        <v>3607167</v>
+        <v>500222</v>
       </c>
       <c r="G16" s="13">
-        <v>2636254</v>
+        <v>546174</v>
       </c>
       <c r="H16" s="13">
-        <v>2061111</v>
+        <v>367335</v>
       </c>
       <c r="I16" s="13">
-        <v>1815081</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>511747</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
+      <c r="E17" s="11">
+        <v>701065</v>
       </c>
       <c r="F17" s="11">
-        <v>2429406</v>
+        <v>864691</v>
       </c>
       <c r="G17" s="11">
-        <v>1813400</v>
+        <v>791012</v>
       </c>
       <c r="H17" s="11">
-        <v>1933601</v>
+        <v>687899</v>
       </c>
       <c r="I17" s="11">
-        <v>3067305</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>495427</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>13</v>
+      <c r="E18" s="13">
+        <v>117</v>
       </c>
       <c r="F18" s="13">
-        <v>114724</v>
+        <v>5912</v>
       </c>
       <c r="G18" s="13">
-        <v>36523</v>
+        <v>29452</v>
       </c>
       <c r="H18" s="13">
-        <v>25268</v>
+        <v>0</v>
       </c>
       <c r="I18" s="13">
-        <v>35655</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>4678484</v>
       </c>
       <c r="F20" s="15">
-        <v>23931718</v>
+        <v>5893916</v>
       </c>
       <c r="G20" s="15">
-        <v>21785380</v>
+        <v>6075986</v>
       </c>
       <c r="H20" s="15">
-        <v>21663338</v>
+        <v>5220747</v>
       </c>
       <c r="I20" s="15">
-        <v>21751500</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5630863</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>24</v>
       </c>
@@ -1015,7 +1050,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>11</v>
       </c>
@@ -1024,212 +1059,212 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="11">
+        <v>2796</v>
+      </c>
+      <c r="H22" s="11">
+        <v>77</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
-        <v>13</v>
+      <c r="E23" s="13">
+        <v>200574</v>
       </c>
       <c r="F23" s="13">
-        <v>270688</v>
+        <v>271243</v>
       </c>
       <c r="G23" s="13">
-        <v>515810</v>
+        <v>196136</v>
       </c>
       <c r="H23" s="13">
-        <v>935793</v>
+        <v>167785</v>
       </c>
       <c r="I23" s="13">
-        <v>848826</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>189239</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>13</v>
+      <c r="E24" s="11">
+        <v>431644</v>
       </c>
       <c r="F24" s="11">
-        <v>980612</v>
+        <v>392709</v>
       </c>
       <c r="G24" s="11">
-        <v>291625</v>
+        <v>351082</v>
       </c>
       <c r="H24" s="11">
-        <v>567530</v>
+        <v>55316</v>
       </c>
       <c r="I24" s="11">
-        <v>1315030</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12911</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
-        <v>13</v>
+      <c r="E25" s="13">
+        <v>15215</v>
       </c>
       <c r="F25" s="13">
-        <v>13347</v>
+        <v>22675</v>
       </c>
       <c r="G25" s="13">
-        <v>39617</v>
+        <v>28870</v>
       </c>
       <c r="H25" s="13">
-        <v>90538</v>
+        <v>1523</v>
       </c>
       <c r="I25" s="13">
-        <v>71835</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>13</v>
+      <c r="E26" s="11">
+        <v>15034</v>
       </c>
       <c r="F26" s="11">
-        <v>339</v>
+        <v>63048</v>
       </c>
       <c r="G26" s="11">
-        <v>24675</v>
+        <v>38315</v>
       </c>
       <c r="H26" s="11">
-        <v>111460</v>
+        <v>36660</v>
       </c>
       <c r="I26" s="11">
-        <v>129633</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18774</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="13" t="s">
-        <v>13</v>
+      <c r="E27" s="13">
+        <v>0</v>
       </c>
       <c r="F27" s="13">
-        <v>8392</v>
+        <v>432</v>
       </c>
       <c r="G27" s="13">
-        <v>4584</v>
+        <v>-432</v>
       </c>
       <c r="H27" s="13">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="I27" s="13">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
-        <v>13</v>
+      <c r="E28" s="11">
+        <v>0</v>
       </c>
       <c r="F28" s="11">
-        <v>3302</v>
+        <v>2107</v>
       </c>
       <c r="G28" s="11">
-        <v>218</v>
+        <v>1712</v>
       </c>
       <c r="H28" s="11">
-        <v>5482</v>
+        <v>292</v>
       </c>
       <c r="I28" s="11">
-        <v>3819</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="G29" s="13">
-        <v>0</v>
+        <v>4478</v>
       </c>
       <c r="H29" s="13">
         <v>0</v>
       </c>
       <c r="I29" s="13">
-        <v>4478</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17">
-        <v>0</v>
+        <v>662467</v>
       </c>
       <c r="F30" s="17">
-        <v>1276680</v>
+        <v>752214</v>
       </c>
       <c r="G30" s="17">
-        <v>876529</v>
+        <v>622957</v>
       </c>
       <c r="H30" s="17">
-        <v>1711073</v>
+        <v>261797</v>
       </c>
       <c r="I30" s="17">
-        <v>2376561</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>222735</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
         <v>26</v>
       </c>
@@ -1241,7 +1276,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>27</v>
       </c>
@@ -1263,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>28</v>
       </c>
@@ -1272,54 +1307,56 @@
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="17">
-        <v>-8200</v>
-      </c>
-      <c r="H34" s="17">
-        <v>-10654</v>
+        <v>22</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15" t="s">
-        <v>13</v>
+      <c r="E35" s="15">
+        <v>6115</v>
       </c>
       <c r="F35" s="15">
-        <v>0</v>
+        <v>7255</v>
       </c>
       <c r="G35" s="15">
         <v>0</v>
@@ -1328,32 +1365,32 @@
         <v>0</v>
       </c>
       <c r="I35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-15120</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17">
-        <v>0</v>
+        <v>5347066</v>
       </c>
       <c r="F36" s="17">
-        <v>25208398</v>
+        <v>6653385</v>
       </c>
       <c r="G36" s="17">
-        <v>22653709</v>
+        <v>6698943</v>
       </c>
       <c r="H36" s="17">
-        <v>23363757</v>
+        <v>5482544</v>
       </c>
       <c r="I36" s="17">
-        <v>24128061</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5838478</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1363,7 +1400,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1373,7 +1410,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1383,7 +1420,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>33</v>
       </c>
@@ -1405,7 +1442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1415,7 +1452,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
@@ -1427,7 +1464,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>11</v>
       </c>
@@ -1435,237 +1472,237 @@
         <v>35</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="11">
+        <v>174453</v>
+      </c>
+      <c r="F43" s="11">
+        <v>381558</v>
+      </c>
+      <c r="G43" s="11">
+        <v>401586</v>
+      </c>
+      <c r="H43" s="11">
+        <v>195245</v>
+      </c>
+      <c r="I43" s="11">
+        <v>437521</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="11">
-        <v>455666</v>
-      </c>
-      <c r="G43" s="11">
-        <v>821412</v>
-      </c>
-      <c r="H43" s="11">
-        <v>947391</v>
-      </c>
-      <c r="I43" s="11">
-        <v>1150843</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13">
+        <v>212251</v>
+      </c>
+      <c r="F44" s="13">
+        <v>226892</v>
+      </c>
+      <c r="G44" s="13">
+        <v>198491</v>
+      </c>
+      <c r="H44" s="13">
+        <v>338893</v>
+      </c>
+      <c r="I44" s="13">
+        <v>386058</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="13">
-        <v>442420</v>
-      </c>
-      <c r="G44" s="13">
-        <v>630667</v>
-      </c>
-      <c r="H44" s="13">
-        <v>1153086</v>
-      </c>
-      <c r="I44" s="13">
-        <v>953468</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11">
+        <v>262086</v>
+      </c>
+      <c r="F45" s="11">
+        <v>379966</v>
+      </c>
+      <c r="G45" s="11">
+        <v>448476</v>
+      </c>
+      <c r="H45" s="11">
+        <v>617847</v>
+      </c>
+      <c r="I45" s="11">
+        <v>1058591</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="11">
-        <v>382662</v>
-      </c>
-      <c r="G45" s="11">
-        <v>554539</v>
-      </c>
-      <c r="H45" s="11">
-        <v>812846</v>
-      </c>
-      <c r="I45" s="11">
-        <v>1334063</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13">
+        <v>653383</v>
+      </c>
+      <c r="F46" s="13">
+        <v>804667</v>
+      </c>
+      <c r="G46" s="13">
+        <v>915110</v>
+      </c>
+      <c r="H46" s="13">
+        <v>1383005</v>
+      </c>
+      <c r="I46" s="13">
+        <v>1857095</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="13">
-        <v>970575</v>
-      </c>
-      <c r="G46" s="13">
-        <v>1428494</v>
-      </c>
-      <c r="H46" s="13">
-        <v>2115706</v>
-      </c>
-      <c r="I46" s="13">
-        <v>3043983</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11">
+        <v>393876</v>
+      </c>
+      <c r="F47" s="11">
+        <v>604154</v>
+      </c>
+      <c r="G47" s="11">
+        <v>642406</v>
+      </c>
+      <c r="H47" s="11">
+        <v>814155</v>
+      </c>
+      <c r="I47" s="11">
+        <v>1077141</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="11">
-        <v>427683</v>
-      </c>
-      <c r="G47" s="11">
-        <v>701458</v>
-      </c>
-      <c r="H47" s="11">
-        <v>1243267</v>
-      </c>
-      <c r="I47" s="11">
-        <v>2033418</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13">
+        <v>194461</v>
+      </c>
+      <c r="F48" s="13">
+        <v>301533</v>
+      </c>
+      <c r="G48" s="13">
+        <v>329234</v>
+      </c>
+      <c r="H48" s="13">
+        <v>289659</v>
+      </c>
+      <c r="I48" s="13">
+        <v>544649</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="13">
-        <v>560531</v>
-      </c>
-      <c r="G48" s="13">
-        <v>658779</v>
-      </c>
-      <c r="H48" s="13">
-        <v>909376</v>
-      </c>
-      <c r="I48" s="13">
-        <v>1040051</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11">
+        <v>311046</v>
+      </c>
+      <c r="F49" s="11">
+        <v>414432</v>
+      </c>
+      <c r="G49" s="11">
+        <v>412159</v>
+      </c>
+      <c r="H49" s="11">
+        <v>458761</v>
+      </c>
+      <c r="I49" s="11">
+        <v>489107</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="11">
-        <v>340219</v>
-      </c>
-      <c r="G49" s="11">
-        <v>376269</v>
-      </c>
-      <c r="H49" s="11">
-        <v>673203</v>
-      </c>
-      <c r="I49" s="11">
-        <v>1415344</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13">
+        <v>146</v>
+      </c>
+      <c r="F50" s="13">
+        <v>3674</v>
+      </c>
+      <c r="G50" s="13">
+        <v>40462</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
+      <c r="I50" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="13">
-        <v>39844</v>
-      </c>
-      <c r="G50" s="13">
-        <v>24692</v>
-      </c>
-      <c r="H50" s="13">
-        <v>20104</v>
-      </c>
-      <c r="I50" s="13">
-        <v>44487</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="11">
-        <v>140000</v>
-      </c>
-      <c r="G51" s="11">
-        <v>75000</v>
-      </c>
-      <c r="H51" s="11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15">
-        <v>0</v>
+        <v>2201702</v>
       </c>
       <c r="F52" s="15">
-        <v>3759600</v>
+        <v>3116876</v>
       </c>
       <c r="G52" s="15">
-        <v>5271310</v>
+        <v>3387924</v>
       </c>
       <c r="H52" s="15">
-        <v>7874979</v>
+        <v>4097565</v>
       </c>
       <c r="I52" s="15">
-        <v>11015657</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5850162</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>36</v>
       </c>
@@ -1677,7 +1714,7 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>11</v>
       </c>
@@ -1686,212 +1723,212 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="11">
+        <v>5781</v>
+      </c>
+      <c r="H54" s="11">
+        <v>259</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>5781</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="12" t="s">
+      <c r="C55" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13">
+        <v>111703</v>
+      </c>
+      <c r="F55" s="13">
+        <v>147490</v>
+      </c>
+      <c r="G55" s="13">
+        <v>108130</v>
+      </c>
+      <c r="H55" s="13">
+        <v>100227</v>
+      </c>
+      <c r="I55" s="13">
+        <v>143603</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="13">
-        <v>31548</v>
-      </c>
-      <c r="G55" s="13">
-        <v>118802</v>
-      </c>
-      <c r="H55" s="13">
-        <v>316303</v>
-      </c>
-      <c r="I55" s="13">
-        <v>453683</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11">
+        <v>86850</v>
+      </c>
+      <c r="F56" s="11">
+        <v>87220</v>
+      </c>
+      <c r="G56" s="11">
+        <v>86611</v>
+      </c>
+      <c r="H56" s="11">
+        <v>18083</v>
+      </c>
+      <c r="I56" s="11">
+        <v>4835</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="11">
-        <v>49098</v>
-      </c>
-      <c r="G56" s="11">
-        <v>31610</v>
-      </c>
-      <c r="H56" s="11">
-        <v>85344</v>
-      </c>
-      <c r="I56" s="11">
-        <v>288759</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="12" t="s">
+      <c r="C57" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13">
+        <v>6756</v>
+      </c>
+      <c r="F57" s="13">
+        <v>10234</v>
+      </c>
+      <c r="G57" s="13">
+        <v>13107</v>
+      </c>
+      <c r="H57" s="13">
+        <v>1182</v>
+      </c>
+      <c r="I57" s="13">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="13">
-        <v>1616</v>
-      </c>
-      <c r="G57" s="13">
-        <v>2369</v>
-      </c>
-      <c r="H57" s="13">
-        <v>25938</v>
-      </c>
-      <c r="I57" s="13">
-        <v>32303</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11">
+        <v>8640</v>
+      </c>
+      <c r="F58" s="11">
+        <v>37540</v>
+      </c>
+      <c r="G58" s="11">
+        <v>35043</v>
+      </c>
+      <c r="H58" s="11">
+        <v>38148</v>
+      </c>
+      <c r="I58" s="11">
+        <v>19796</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="11">
-        <v>52</v>
-      </c>
-      <c r="G58" s="11">
-        <v>10385</v>
-      </c>
-      <c r="H58" s="11">
-        <v>46459</v>
-      </c>
-      <c r="I58" s="11">
-        <v>87803</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="12" t="s">
+      <c r="C59" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13">
+        <v>0</v>
+      </c>
+      <c r="F59" s="13">
+        <v>293</v>
+      </c>
+      <c r="G59" s="13">
+        <v>-293</v>
+      </c>
+      <c r="H59" s="13">
+        <v>69</v>
+      </c>
+      <c r="I59" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="13">
-        <v>858</v>
-      </c>
-      <c r="G59" s="13">
-        <v>1174</v>
-      </c>
-      <c r="H59" s="13">
-        <v>68</v>
-      </c>
-      <c r="I59" s="13">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>955</v>
+      </c>
+      <c r="G60" s="11">
+        <v>1701</v>
+      </c>
+      <c r="H60" s="11">
+        <v>164</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="11">
-        <v>292</v>
-      </c>
-      <c r="G60" s="11">
-        <v>38</v>
-      </c>
-      <c r="H60" s="11">
-        <v>2504</v>
-      </c>
-      <c r="I60" s="11">
-        <v>2656</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="13">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="G61" s="13">
-        <v>0</v>
+        <v>4191</v>
       </c>
       <c r="H61" s="13">
         <v>0</v>
       </c>
       <c r="I61" s="13">
-        <v>4191</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17">
-        <v>0</v>
+        <v>213949</v>
       </c>
       <c r="F62" s="17">
-        <v>83464</v>
+        <v>283732</v>
       </c>
       <c r="G62" s="17">
-        <v>164378</v>
+        <v>254271</v>
       </c>
       <c r="H62" s="17">
-        <v>476616</v>
+        <v>158132</v>
       </c>
       <c r="I62" s="17">
-        <v>875259</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>169983</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="18" t="s">
         <v>37</v>
       </c>
@@ -1903,7 +1940,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="16" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>28</v>
       </c>
@@ -1934,22 +1971,22 @@
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="G65" s="15">
+        <v>-1418110</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="15">
-        <v>-1418110</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="16" t="s">
         <v>30</v>
       </c>
@@ -1958,22 +1995,22 @@
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="17">
-        <v>0</v>
-      </c>
-      <c r="G66" s="17">
-        <v>0</v>
-      </c>
-      <c r="H66" s="17">
-        <v>-17533</v>
+        <v>22</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>31</v>
       </c>
@@ -1981,45 +2018,45 @@
         <v>35</v>
       </c>
       <c r="D67" s="15"/>
-      <c r="E67" s="15" t="s">
-        <v>13</v>
+      <c r="E67" s="15">
+        <v>-256565</v>
       </c>
       <c r="F67" s="15">
-        <v>-363314</v>
+        <v>-552494</v>
       </c>
       <c r="G67" s="15">
-        <v>-418763</v>
+        <v>-425702</v>
       </c>
       <c r="H67" s="15">
-        <v>-715817</v>
+        <v>-131568</v>
       </c>
       <c r="I67" s="15">
-        <v>-1418110</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-176208</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17">
-        <v>0</v>
+        <v>2159086</v>
       </c>
       <c r="F68" s="17">
-        <v>3479750</v>
+        <v>2848114</v>
       </c>
       <c r="G68" s="17">
-        <v>5016925</v>
+        <v>1798383</v>
       </c>
       <c r="H68" s="17">
-        <v>7618245</v>
+        <v>4124129</v>
       </c>
       <c r="I68" s="17">
-        <v>9054696</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5843937</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2029,7 +2066,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2039,7 +2076,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2049,7 +2086,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>38</v>
       </c>
@@ -2071,7 +2108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2081,7 +2118,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>39</v>
       </c>
@@ -2093,7 +2130,7 @@
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>11</v>
       </c>
@@ -2101,215 +2138,215 @@
         <v>40</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="11">
+        <v>2437482</v>
+      </c>
+      <c r="F75" s="11">
+        <v>2762051</v>
+      </c>
+      <c r="G75" s="11">
+        <v>2797534</v>
+      </c>
+      <c r="H75" s="11">
+        <v>4201166</v>
+      </c>
+      <c r="I75" s="11">
+        <v>4687440</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F75" s="11">
-        <v>505707</v>
-      </c>
-      <c r="G75" s="11">
-        <v>1082175</v>
-      </c>
-      <c r="H75" s="11">
-        <v>1728882</v>
-      </c>
-      <c r="I75" s="11">
-        <v>2694924</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D76" s="13"/>
-      <c r="E76" s="13" t="s">
-        <v>13</v>
+      <c r="E76" s="13">
+        <v>602878</v>
       </c>
       <c r="F76" s="13">
-        <v>168140</v>
+        <v>602798</v>
       </c>
       <c r="G76" s="13">
-        <v>257753</v>
+        <v>641237</v>
       </c>
       <c r="H76" s="13">
-        <v>470383</v>
+        <v>956563</v>
       </c>
       <c r="I76" s="13">
-        <v>610433</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1078989</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
-        <v>13</v>
+      <c r="E77" s="11">
+        <v>212721</v>
       </c>
       <c r="F77" s="11">
-        <v>69510</v>
+        <v>249910</v>
       </c>
       <c r="G77" s="11">
-        <v>101295</v>
+        <v>274349</v>
       </c>
       <c r="H77" s="11">
-        <v>143626</v>
+        <v>407817</v>
       </c>
       <c r="I77" s="11">
-        <v>236033</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>625576</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D78" s="13"/>
-      <c r="E78" s="13" t="s">
-        <v>13</v>
+      <c r="E78" s="13">
+        <v>457312</v>
       </c>
       <c r="F78" s="13">
-        <v>142651</v>
+        <v>457324</v>
       </c>
       <c r="G78" s="13">
-        <v>218665</v>
+        <v>456230</v>
       </c>
       <c r="H78" s="13">
-        <v>322647</v>
+        <v>803982</v>
       </c>
       <c r="I78" s="13">
-        <v>453505</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>982862</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
-        <v>13</v>
+      <c r="E79" s="11">
+        <v>690677</v>
       </c>
       <c r="F79" s="11">
-        <v>220549</v>
+        <v>828807</v>
       </c>
       <c r="G79" s="11">
-        <v>336255</v>
+        <v>1043284</v>
       </c>
       <c r="H79" s="11">
-        <v>512220</v>
+        <v>1537432</v>
       </c>
       <c r="I79" s="11">
-        <v>819821</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1822904</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D80" s="13"/>
-      <c r="E80" s="13" t="s">
-        <v>13</v>
+      <c r="E80" s="13">
+        <v>602821</v>
       </c>
       <c r="F80" s="13">
-        <v>155394</v>
+        <v>602798</v>
       </c>
       <c r="G80" s="13">
-        <v>249892</v>
+        <v>602801</v>
       </c>
       <c r="H80" s="13">
-        <v>441207</v>
+        <v>788542</v>
       </c>
       <c r="I80" s="13">
-        <v>573005</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1064293</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
-        <v>13</v>
+      <c r="E81" s="11">
+        <v>443676</v>
       </c>
       <c r="F81" s="11">
-        <v>140042</v>
+        <v>479283</v>
       </c>
       <c r="G81" s="11">
-        <v>207494</v>
+        <v>521053</v>
       </c>
       <c r="H81" s="11">
-        <v>348160</v>
+        <v>666902</v>
       </c>
       <c r="I81" s="11">
-        <v>461429</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>987243</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D82" s="13"/>
-      <c r="E82" s="13" t="s">
-        <v>13</v>
+      <c r="E82" s="13">
+        <v>1247863</v>
       </c>
       <c r="F82" s="13">
-        <v>347303</v>
+        <v>621448</v>
       </c>
       <c r="G82" s="13">
-        <v>676067</v>
-      </c>
-      <c r="H82" s="13">
-        <v>795631</v>
-      </c>
-      <c r="I82" s="13">
-        <v>1247707</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1373829</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="11">
-        <v>0</v>
-      </c>
-      <c r="G83" s="11">
-        <v>0</v>
-      </c>
-      <c r="H83" s="11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>42</v>
       </c>
@@ -2321,7 +2358,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>11</v>
       </c>
@@ -2330,190 +2367,190 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="11">
+        <v>2067597</v>
+      </c>
+      <c r="H85" s="11">
+        <v>3363636</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F85" s="11">
-        <v>0</v>
-      </c>
-      <c r="G85" s="11">
-        <v>0</v>
-      </c>
-      <c r="H85" s="11">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11">
-        <v>2067597</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D86" s="13"/>
-      <c r="E86" s="13" t="s">
-        <v>13</v>
+      <c r="E86" s="13">
+        <v>556917</v>
       </c>
       <c r="F86" s="13">
-        <v>116547</v>
+        <v>543756</v>
       </c>
       <c r="G86" s="13">
-        <v>230321</v>
+        <v>551301</v>
       </c>
       <c r="H86" s="13">
-        <v>338005</v>
+        <v>597354</v>
       </c>
       <c r="I86" s="13">
-        <v>534483</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>758845</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
-        <v>13</v>
+      <c r="E87" s="11">
+        <v>201207</v>
       </c>
       <c r="F87" s="11">
-        <v>50069</v>
+        <v>222098</v>
       </c>
       <c r="G87" s="11">
-        <v>108393</v>
+        <v>246697</v>
       </c>
       <c r="H87" s="11">
-        <v>150378</v>
+        <v>326904</v>
       </c>
       <c r="I87" s="11">
-        <v>219584</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>374487</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D88" s="13"/>
-      <c r="E88" s="13" t="s">
-        <v>13</v>
+      <c r="E88" s="13">
+        <v>444035</v>
       </c>
       <c r="F88" s="13">
-        <v>121076</v>
+        <v>451334</v>
       </c>
       <c r="G88" s="13">
-        <v>59798</v>
+        <v>454001</v>
       </c>
       <c r="H88" s="13">
-        <v>286487</v>
+        <v>776100</v>
       </c>
       <c r="I88" s="13">
-        <v>449683</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>966298</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>13</v>
+      <c r="E89" s="11">
+        <v>574697</v>
       </c>
       <c r="F89" s="11">
-        <v>153392</v>
+        <v>595419</v>
       </c>
       <c r="G89" s="11">
-        <v>420871</v>
+        <v>914603</v>
       </c>
       <c r="H89" s="11">
-        <v>416822</v>
+        <v>1040589</v>
       </c>
       <c r="I89" s="11">
-        <v>677320</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1054437</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F90" s="13">
-        <v>102240</v>
+        <v>678241</v>
       </c>
       <c r="G90" s="13">
-        <v>256108</v>
+        <v>678241</v>
       </c>
       <c r="H90" s="13">
-        <v>251852</v>
-      </c>
-      <c r="I90" s="13">
-        <v>576389</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>479167</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F91" s="11">
-        <v>88431</v>
+        <v>453251</v>
       </c>
       <c r="G91" s="11">
-        <v>174312</v>
+        <v>993575</v>
       </c>
       <c r="H91" s="11">
-        <v>456768</v>
-      </c>
-      <c r="I91" s="11">
-        <v>695470</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>561644</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="13">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="G92" s="13">
-        <v>0</v>
-      </c>
-      <c r="H92" s="13">
-        <v>0</v>
-      </c>
-      <c r="I92" s="13">
         <v>935909</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H92" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2523,7 +2560,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2533,7 +2570,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2543,7 +2580,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>43</v>
       </c>
@@ -2565,7 +2602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2575,7 +2612,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>44</v>
       </c>
@@ -2587,7 +2624,7 @@
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>11</v>
       </c>
@@ -2595,237 +2632,237 @@
         <v>35</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="11">
+        <v>-46822</v>
+      </c>
+      <c r="F99" s="11">
+        <v>-284183</v>
+      </c>
+      <c r="G99" s="11">
+        <v>57155</v>
+      </c>
+      <c r="H99" s="11">
+        <v>-87067</v>
+      </c>
+      <c r="I99" s="11">
+        <v>-102233</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F99" s="11">
-        <v>-239886</v>
-      </c>
-      <c r="G99" s="11">
-        <v>-411895</v>
-      </c>
-      <c r="H99" s="11">
-        <v>-368862</v>
-      </c>
-      <c r="I99" s="11">
-        <v>-414877</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="12" t="s">
+      <c r="C100" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13">
+        <v>-141696</v>
+      </c>
+      <c r="F100" s="13">
+        <v>-79572</v>
+      </c>
+      <c r="G100" s="13">
+        <v>-243092</v>
+      </c>
+      <c r="H100" s="13">
+        <v>-216785</v>
+      </c>
+      <c r="I100" s="13">
+        <v>-178521</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="13">
-        <v>-333704</v>
-      </c>
-      <c r="G100" s="13">
-        <v>-470640</v>
-      </c>
-      <c r="H100" s="13">
-        <v>-747473</v>
-      </c>
-      <c r="I100" s="13">
-        <v>-718728</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="10" t="s">
+      <c r="C101" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11">
+        <v>-232136</v>
+      </c>
+      <c r="F101" s="11">
+        <v>-284095</v>
+      </c>
+      <c r="G101" s="11">
+        <v>-586474</v>
+      </c>
+      <c r="H101" s="11">
+        <v>-558315</v>
+      </c>
+      <c r="I101" s="11">
+        <v>-597658</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="11">
-        <v>-414116</v>
-      </c>
-      <c r="G101" s="11">
-        <v>-539003</v>
-      </c>
-      <c r="H101" s="11">
-        <v>-934124</v>
-      </c>
-      <c r="I101" s="11">
-        <v>-1376270</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="12" t="s">
+      <c r="C102" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13">
+        <v>-480384</v>
+      </c>
+      <c r="F102" s="13">
+        <v>-437779</v>
+      </c>
+      <c r="G102" s="13">
+        <v>-276582</v>
+      </c>
+      <c r="H102" s="13">
+        <v>-661558</v>
+      </c>
+      <c r="I102" s="13">
+        <v>-910590</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="13">
-        <v>-524025</v>
-      </c>
-      <c r="G102" s="13">
-        <v>-694333</v>
-      </c>
-      <c r="H102" s="13">
-        <v>-902288</v>
-      </c>
-      <c r="I102" s="13">
-        <v>-1575094</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="10" t="s">
+      <c r="C103" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11">
+        <v>-311889</v>
+      </c>
+      <c r="F103" s="11">
+        <v>-349703</v>
+      </c>
+      <c r="G103" s="11">
+        <v>-456297</v>
+      </c>
+      <c r="H103" s="11">
+        <v>-356198</v>
+      </c>
+      <c r="I103" s="11">
+        <v>-639008</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="11">
-        <v>-329416</v>
-      </c>
-      <c r="G103" s="11">
-        <v>-503507</v>
-      </c>
-      <c r="H103" s="11">
-        <v>-756393</v>
-      </c>
-      <c r="I103" s="11">
-        <v>-1388275</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="12" t="s">
+      <c r="C104" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13">
+        <v>-173464</v>
+      </c>
+      <c r="F104" s="13">
+        <v>-164757</v>
+      </c>
+      <c r="G104" s="13">
+        <v>-1294732</v>
+      </c>
+      <c r="H104" s="13">
+        <v>-240605</v>
+      </c>
+      <c r="I104" s="13">
+        <v>-235182</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C104" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="13">
-        <v>-376496</v>
-      </c>
-      <c r="G104" s="13">
-        <v>-387230</v>
-      </c>
-      <c r="H104" s="13">
-        <v>-561111</v>
-      </c>
-      <c r="I104" s="13">
-        <v>-1827845</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="10" t="s">
+      <c r="C105" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11">
+        <v>-318876</v>
+      </c>
+      <c r="F105" s="11">
+        <v>-250698</v>
+      </c>
+      <c r="G105" s="11">
+        <v>721115</v>
+      </c>
+      <c r="H105" s="11">
+        <v>-302771</v>
+      </c>
+      <c r="I105" s="11">
+        <v>-320051</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="11">
-        <v>-245114</v>
-      </c>
-      <c r="G105" s="11">
-        <v>-249455</v>
-      </c>
-      <c r="H105" s="11">
-        <v>-437850</v>
-      </c>
-      <c r="I105" s="11">
-        <v>-585</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="12" t="s">
+      <c r="C106" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13">
+        <v>1316</v>
+      </c>
+      <c r="F106" s="13">
+        <v>-1655</v>
+      </c>
+      <c r="G106" s="13">
+        <v>-36496</v>
+      </c>
+      <c r="H106" s="13">
+        <v>0</v>
+      </c>
+      <c r="I106" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="13">
-        <v>-46070</v>
-      </c>
-      <c r="G106" s="13">
-        <v>-75723</v>
-      </c>
-      <c r="H106" s="13">
-        <v>-71149</v>
-      </c>
-      <c r="I106" s="13">
-        <v>-39555</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="11">
-        <v>0</v>
-      </c>
-      <c r="G107" s="11">
-        <v>0</v>
-      </c>
-      <c r="H107" s="11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15">
-        <v>0</v>
+        <v>-1703951</v>
       </c>
       <c r="F108" s="15">
-        <v>-2508827</v>
+        <v>-1852442</v>
       </c>
       <c r="G108" s="15">
-        <v>-3331786</v>
+        <v>-2115403</v>
       </c>
       <c r="H108" s="15">
-        <v>-4779250</v>
+        <v>-2423299</v>
       </c>
       <c r="I108" s="15">
-        <v>-7341229</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2983243</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>46</v>
       </c>
@@ -2837,7 +2874,7 @@
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>11</v>
       </c>
@@ -2846,212 +2883,212 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="11">
+        <v>-2716</v>
+      </c>
+      <c r="H110" s="11">
+        <v>-144</v>
+      </c>
+      <c r="I110" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="11">
-        <v>0</v>
-      </c>
-      <c r="G110" s="11">
-        <v>0</v>
-      </c>
-      <c r="H110" s="11">
-        <v>-2504</v>
-      </c>
-      <c r="I110" s="11">
-        <v>-2716</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="12" t="s">
+      <c r="C111" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13">
+        <v>65141</v>
+      </c>
+      <c r="F111" s="13">
+        <v>-214243</v>
+      </c>
+      <c r="G111" s="13">
+        <v>-176342</v>
+      </c>
+      <c r="H111" s="13">
+        <v>-100044</v>
+      </c>
+      <c r="I111" s="13">
+        <v>-98156</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C111" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" s="13">
-        <v>-23487</v>
-      </c>
-      <c r="G111" s="13">
-        <v>-85058</v>
-      </c>
-      <c r="H111" s="13">
-        <v>-172139</v>
-      </c>
-      <c r="I111" s="13">
-        <v>-390585</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="10" t="s">
+      <c r="C112" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11">
+        <v>-83029</v>
+      </c>
+      <c r="F112" s="11">
+        <v>-67005</v>
+      </c>
+      <c r="G112" s="11">
+        <v>-145487</v>
+      </c>
+      <c r="H112" s="11">
+        <v>-18073</v>
+      </c>
+      <c r="I112" s="11">
+        <v>-4476</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C112" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" s="11">
-        <v>-58107</v>
-      </c>
-      <c r="G112" s="11">
-        <v>-30580</v>
-      </c>
-      <c r="H112" s="11">
-        <v>-103362</v>
-      </c>
-      <c r="I112" s="11">
-        <v>-327420</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="12" t="s">
+      <c r="C113" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13">
+        <v>1018</v>
+      </c>
+      <c r="F113" s="13">
+        <v>-11902</v>
+      </c>
+      <c r="G113" s="13">
+        <v>-5023</v>
+      </c>
+      <c r="H113" s="13">
+        <v>-1086</v>
+      </c>
+      <c r="I113" s="13">
+        <v>-366</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="13">
-        <v>-876</v>
-      </c>
-      <c r="G113" s="13">
-        <v>-1201</v>
-      </c>
-      <c r="H113" s="13">
-        <v>-8278</v>
-      </c>
-      <c r="I113" s="13">
-        <v>-16925</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="10" t="s">
+      <c r="C114" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11">
+        <v>-6786</v>
+      </c>
+      <c r="F114" s="11">
+        <v>-24853</v>
+      </c>
+      <c r="G114" s="11">
+        <v>-40626</v>
+      </c>
+      <c r="H114" s="11">
+        <v>-35049</v>
+      </c>
+      <c r="I114" s="11">
+        <v>-14189</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C114" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="11">
-        <v>-38</v>
-      </c>
-      <c r="G114" s="11">
-        <v>-5331</v>
-      </c>
-      <c r="H114" s="11">
-        <v>-32510</v>
-      </c>
-      <c r="I114" s="11">
-        <v>-75975</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="12" t="s">
+      <c r="C115" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13">
+        <v>77</v>
+      </c>
+      <c r="F115" s="13">
+        <v>-282</v>
+      </c>
+      <c r="G115" s="13">
+        <v>228</v>
+      </c>
+      <c r="H115" s="13">
+        <v>-66</v>
+      </c>
+      <c r="I115" s="13">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C115" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="13">
-        <v>-703</v>
-      </c>
-      <c r="G115" s="13">
-        <v>-702</v>
-      </c>
-      <c r="H115" s="13">
-        <v>-46</v>
-      </c>
-      <c r="I115" s="13">
-        <v>-54</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="10" t="s">
+      <c r="C116" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11">
+        <v>0</v>
+      </c>
+      <c r="F116" s="11">
+        <v>-707</v>
+      </c>
+      <c r="G116" s="11">
+        <v>-1206</v>
+      </c>
+      <c r="H116" s="11">
+        <v>-157</v>
+      </c>
+      <c r="I116" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" s="11">
-        <v>-262</v>
-      </c>
-      <c r="G116" s="11">
-        <v>-23</v>
-      </c>
-      <c r="H116" s="11">
-        <v>0</v>
-      </c>
-      <c r="I116" s="11">
-        <v>-1913</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" s="13">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="G117" s="13">
-        <v>0</v>
+        <v>-4968</v>
       </c>
       <c r="H117" s="13">
         <v>0</v>
       </c>
       <c r="I117" s="13">
-        <v>-4968</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
       <c r="E118" s="17">
-        <v>0</v>
+        <v>-23579</v>
       </c>
       <c r="F118" s="17">
-        <v>-83473</v>
+        <v>-318992</v>
       </c>
       <c r="G118" s="17">
-        <v>-122895</v>
+        <v>-376140</v>
       </c>
       <c r="H118" s="17">
-        <v>-318839</v>
+        <v>-154619</v>
       </c>
       <c r="I118" s="17">
-        <v>-820556</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-117146</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="18" t="s">
         <v>48</v>
       </c>
@@ -3063,7 +3100,7 @@
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="16" t="s">
         <v>49</v>
       </c>
@@ -3085,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>28</v>
       </c>
@@ -3094,22 +3131,22 @@
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="15" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="G121" s="15">
+        <v>0</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I121" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I121" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="16" t="s">
         <v>30</v>
       </c>
@@ -3118,22 +3155,22 @@
       </c>
       <c r="D122" s="17"/>
       <c r="E122" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="17">
-        <v>0</v>
-      </c>
-      <c r="G122" s="17">
-        <v>0</v>
-      </c>
-      <c r="H122" s="17">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="I122" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="14" t="s">
         <v>31</v>
       </c>
@@ -3141,8 +3178,8 @@
         <v>35</v>
       </c>
       <c r="D123" s="15"/>
-      <c r="E123" s="15" t="s">
-        <v>13</v>
+      <c r="E123" s="15">
+        <v>0</v>
       </c>
       <c r="F123" s="15">
         <v>0</v>
@@ -3154,32 +3191,32 @@
         <v>0</v>
       </c>
       <c r="I123" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
       <c r="E124" s="17">
-        <v>0</v>
+        <v>-1727530</v>
       </c>
       <c r="F124" s="17">
-        <v>-2592300</v>
+        <v>-2171434</v>
       </c>
       <c r="G124" s="17">
-        <v>-3454681</v>
+        <v>-2491543</v>
       </c>
       <c r="H124" s="17">
-        <v>-5098089</v>
+        <v>-2577918</v>
       </c>
       <c r="I124" s="17">
-        <v>-8161785</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3091759</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3189,7 +3226,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3199,7 +3236,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3209,7 +3246,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
         <v>50</v>
       </c>
@@ -3231,7 +3268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3241,7 +3278,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>51</v>
       </c>
@@ -3253,7 +3290,7 @@
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>11</v>
       </c>
@@ -3261,237 +3298,237 @@
         <v>35</v>
       </c>
       <c r="D131" s="11"/>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="11">
+        <v>127631</v>
+      </c>
+      <c r="F131" s="11">
+        <v>97375</v>
+      </c>
+      <c r="G131" s="11">
+        <v>458741</v>
+      </c>
+      <c r="H131" s="11">
+        <v>108178</v>
+      </c>
+      <c r="I131" s="11">
+        <v>335288</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B132" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F131" s="11">
-        <v>215780</v>
-      </c>
-      <c r="G131" s="11">
-        <v>409517</v>
-      </c>
-      <c r="H131" s="11">
-        <v>578529</v>
-      </c>
-      <c r="I131" s="11">
-        <v>735966</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="12" t="s">
+      <c r="C132" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13">
+        <v>70555</v>
+      </c>
+      <c r="F132" s="13">
+        <v>147320</v>
+      </c>
+      <c r="G132" s="13">
+        <v>-44601</v>
+      </c>
+      <c r="H132" s="13">
+        <v>122108</v>
+      </c>
+      <c r="I132" s="13">
+        <v>207537</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B133" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C132" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="13">
-        <v>108716</v>
-      </c>
-      <c r="G132" s="13">
-        <v>160027</v>
-      </c>
-      <c r="H132" s="13">
-        <v>405603</v>
-      </c>
-      <c r="I132" s="13">
-        <v>234740</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="10" t="s">
+      <c r="C133" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11">
+        <v>29950</v>
+      </c>
+      <c r="F133" s="11">
+        <v>95791</v>
+      </c>
+      <c r="G133" s="11">
+        <v>-137998</v>
+      </c>
+      <c r="H133" s="11">
+        <v>59532</v>
+      </c>
+      <c r="I133" s="11">
+        <v>460933</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C133" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F133" s="11">
-        <v>-31454</v>
-      </c>
-      <c r="G133" s="11">
-        <v>15536</v>
-      </c>
-      <c r="H133" s="11">
-        <v>-121278</v>
-      </c>
-      <c r="I133" s="11">
-        <v>-42207</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="12" t="s">
+      <c r="C134" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13">
+        <v>172999</v>
+      </c>
+      <c r="F134" s="13">
+        <v>366888</v>
+      </c>
+      <c r="G134" s="13">
+        <v>638528</v>
+      </c>
+      <c r="H134" s="13">
+        <v>721447</v>
+      </c>
+      <c r="I134" s="13">
+        <v>946505</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C134" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F134" s="13">
-        <v>446550</v>
-      </c>
-      <c r="G134" s="13">
-        <v>734161</v>
-      </c>
-      <c r="H134" s="13">
-        <v>1213418</v>
-      </c>
-      <c r="I134" s="13">
-        <v>1468889</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="10" t="s">
+      <c r="C135" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11">
+        <v>81987</v>
+      </c>
+      <c r="F135" s="11">
+        <v>254451</v>
+      </c>
+      <c r="G135" s="11">
+        <v>186109</v>
+      </c>
+      <c r="H135" s="11">
+        <v>457957</v>
+      </c>
+      <c r="I135" s="11">
+        <v>438133</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C135" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" s="11">
-        <v>98267</v>
-      </c>
-      <c r="G135" s="11">
-        <v>197951</v>
-      </c>
-      <c r="H135" s="11">
-        <v>486874</v>
-      </c>
-      <c r="I135" s="11">
-        <v>645143</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="12" t="s">
+      <c r="C136" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13">
+        <v>20997</v>
+      </c>
+      <c r="F136" s="13">
+        <v>136776</v>
+      </c>
+      <c r="G136" s="13">
+        <v>-965498</v>
+      </c>
+      <c r="H136" s="13">
+        <v>49054</v>
+      </c>
+      <c r="I136" s="13">
+        <v>309467</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" s="13">
-        <v>184035</v>
-      </c>
-      <c r="G136" s="13">
-        <v>271549</v>
-      </c>
-      <c r="H136" s="13">
-        <v>348265</v>
-      </c>
-      <c r="I136" s="13">
-        <v>-787794</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="10" t="s">
+      <c r="C137" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11">
+        <v>-7830</v>
+      </c>
+      <c r="F137" s="11">
+        <v>163734</v>
+      </c>
+      <c r="G137" s="11">
+        <v>1133274</v>
+      </c>
+      <c r="H137" s="11">
+        <v>155990</v>
+      </c>
+      <c r="I137" s="11">
+        <v>169056</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C137" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="11">
-        <v>95105</v>
-      </c>
-      <c r="G137" s="11">
-        <v>126814</v>
-      </c>
-      <c r="H137" s="11">
-        <v>235353</v>
-      </c>
-      <c r="I137" s="11">
-        <v>1414759</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="12" t="s">
+      <c r="C138" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13">
+        <v>1462</v>
+      </c>
+      <c r="F138" s="13">
+        <v>2019</v>
+      </c>
+      <c r="G138" s="13">
+        <v>3966</v>
+      </c>
+      <c r="H138" s="13">
+        <v>0</v>
+      </c>
+      <c r="I138" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" s="13">
-        <v>-6226</v>
-      </c>
-      <c r="G138" s="13">
-        <v>-51031</v>
-      </c>
-      <c r="H138" s="13">
-        <v>-51045</v>
-      </c>
-      <c r="I138" s="13">
-        <v>4932</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" s="11">
-        <v>140000</v>
-      </c>
-      <c r="G139" s="11">
-        <v>75000</v>
-      </c>
-      <c r="H139" s="11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
       <c r="E140" s="15">
-        <v>0</v>
+        <v>497751</v>
       </c>
       <c r="F140" s="15">
-        <v>1250773</v>
+        <v>1264354</v>
       </c>
       <c r="G140" s="15">
-        <v>1939524</v>
+        <v>1272521</v>
       </c>
       <c r="H140" s="15">
-        <v>3095719</v>
+        <v>1674266</v>
       </c>
       <c r="I140" s="15">
-        <v>3674428</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2866919</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>53</v>
       </c>
@@ -3503,7 +3540,7 @@
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>11</v>
       </c>
@@ -3512,212 +3549,212 @@
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" s="11">
+        <v>3065</v>
+      </c>
+      <c r="H142" s="11">
+        <v>115</v>
+      </c>
+      <c r="I142" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B143" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F142" s="11">
-        <v>0</v>
-      </c>
-      <c r="G142" s="11">
-        <v>0</v>
-      </c>
-      <c r="H142" s="11">
-        <v>-2504</v>
-      </c>
-      <c r="I142" s="11">
-        <v>3065</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="12" t="s">
+      <c r="C143" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13">
+        <v>176844</v>
+      </c>
+      <c r="F143" s="13">
+        <v>-66753</v>
+      </c>
+      <c r="G143" s="13">
+        <v>-68212</v>
+      </c>
+      <c r="H143" s="13">
+        <v>183</v>
+      </c>
+      <c r="I143" s="13">
+        <v>45447</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B144" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C143" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" s="13">
-        <v>8061</v>
-      </c>
-      <c r="G143" s="13">
-        <v>33744</v>
-      </c>
-      <c r="H143" s="13">
-        <v>144164</v>
-      </c>
-      <c r="I143" s="13">
-        <v>63098</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="10" t="s">
+      <c r="C144" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11">
+        <v>3821</v>
+      </c>
+      <c r="F144" s="11">
+        <v>20215</v>
+      </c>
+      <c r="G144" s="11">
+        <v>-58876</v>
+      </c>
+      <c r="H144" s="11">
+        <v>10</v>
+      </c>
+      <c r="I144" s="11">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B145" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C144" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" s="11">
-        <v>-9009</v>
-      </c>
-      <c r="G144" s="11">
-        <v>1030</v>
-      </c>
-      <c r="H144" s="11">
-        <v>-18018</v>
-      </c>
-      <c r="I144" s="11">
-        <v>-38661</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" s="12" t="s">
+      <c r="C145" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13">
+        <v>7774</v>
+      </c>
+      <c r="F145" s="13">
+        <v>-1668</v>
+      </c>
+      <c r="G145" s="13">
+        <v>8084</v>
+      </c>
+      <c r="H145" s="13">
+        <v>96</v>
+      </c>
+      <c r="I145" s="13">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C145" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" s="13">
-        <v>740</v>
-      </c>
-      <c r="G145" s="13">
-        <v>1168</v>
-      </c>
-      <c r="H145" s="13">
-        <v>17660</v>
-      </c>
-      <c r="I145" s="13">
-        <v>15378</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="10" t="s">
+      <c r="C146" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11">
+        <v>1854</v>
+      </c>
+      <c r="F146" s="11">
+        <v>12687</v>
+      </c>
+      <c r="G146" s="11">
+        <v>-5583</v>
+      </c>
+      <c r="H146" s="11">
+        <v>3099</v>
+      </c>
+      <c r="I146" s="11">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C146" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" s="11">
-        <v>14</v>
-      </c>
-      <c r="G146" s="11">
-        <v>5054</v>
-      </c>
-      <c r="H146" s="11">
-        <v>13949</v>
-      </c>
-      <c r="I146" s="11">
-        <v>11828</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="12" t="s">
+      <c r="C147" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13">
+        <v>77</v>
+      </c>
+      <c r="F147" s="13">
+        <v>11</v>
+      </c>
+      <c r="G147" s="13">
+        <v>-65</v>
+      </c>
+      <c r="H147" s="13">
+        <v>3</v>
+      </c>
+      <c r="I147" s="13">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" s="13">
-        <v>155</v>
-      </c>
-      <c r="G147" s="13">
-        <v>472</v>
-      </c>
-      <c r="H147" s="13">
-        <v>22</v>
-      </c>
-      <c r="I147" s="13">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="10" t="s">
+      <c r="C148" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11">
+        <v>0</v>
+      </c>
+      <c r="F148" s="11">
+        <v>248</v>
+      </c>
+      <c r="G148" s="11">
+        <v>495</v>
+      </c>
+      <c r="H148" s="11">
+        <v>7</v>
+      </c>
+      <c r="I148" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B149" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="11">
-        <v>30</v>
-      </c>
-      <c r="G148" s="11">
-        <v>15</v>
-      </c>
-      <c r="H148" s="11">
-        <v>2504</v>
-      </c>
-      <c r="I148" s="11">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B149" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D149" s="13"/>
       <c r="E149" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="13">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="G149" s="13">
-        <v>0</v>
+        <v>-777</v>
       </c>
       <c r="H149" s="13">
         <v>0</v>
       </c>
       <c r="I149" s="13">
-        <v>-777</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
       <c r="E150" s="17">
-        <v>0</v>
+        <v>190370</v>
       </c>
       <c r="F150" s="17">
-        <v>-9</v>
+        <v>-35260</v>
       </c>
       <c r="G150" s="17">
-        <v>41483</v>
+        <v>-121869</v>
       </c>
       <c r="H150" s="17">
-        <v>157777</v>
+        <v>3513</v>
       </c>
       <c r="I150" s="17">
-        <v>54703</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>52837</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="18" t="s">
         <v>55</v>
       </c>
@@ -3729,7 +3766,7 @@
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="16" t="s">
         <v>56</v>
       </c>
@@ -3751,26 +3788,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
       <c r="E153" s="15">
-        <v>0</v>
+        <v>688121</v>
       </c>
       <c r="F153" s="15">
-        <v>1250764</v>
+        <v>1229094</v>
       </c>
       <c r="G153" s="15">
-        <v>1981007</v>
+        <v>1150652</v>
       </c>
       <c r="H153" s="15">
-        <v>3253496</v>
+        <v>1677779</v>
       </c>
       <c r="I153" s="15">
-        <v>3729131</v>
+        <v>2919756</v>
       </c>
     </row>
   </sheetData>
